--- a/codebusters_data_analysis/JPQL.xlsx
+++ b/codebusters_data_analysis/JPQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mstaszek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MyProjects\PythonDataScience\codebusters_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D226B044-35DA-4EA2-90BC-A03726E84170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9823F-10DD-44C3-A84D-4F2161EF120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31767D8D-6B4B-47D4-BDF1-81DFB4278D02}"/>
   </bookViews>
@@ -736,15 +736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C30BBF-74A0-47A6-90CB-2824AFE68EAF}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
